--- a/Document/DPV.ATL/Attribute List.xlsx
+++ b/Document/DPV.ATL/Attribute List.xlsx
@@ -4,21 +4,34 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
-    <sheet name="Store" sheetId="2" r:id="rId2"/>
-    <sheet name="Supplier" sheetId="3" r:id="rId3"/>
-    <sheet name="Customer" sheetId="4" r:id="rId4"/>
-    <sheet name="ProductPicture" sheetId="5" r:id="rId5"/>
+    <sheet name="ProductPicture" sheetId="5" r:id="rId2"/>
+    <sheet name="ProductGroup" sheetId="6" r:id="rId3"/>
+    <sheet name="ProductComment" sheetId="7" r:id="rId4"/>
+    <sheet name="ProductBase" sheetId="8" r:id="rId5"/>
+    <sheet name="ProductBaseProductMap" sheetId="9" r:id="rId6"/>
+    <sheet name="ProductRate" sheetId="10" r:id="rId7"/>
+    <sheet name="ProductSupplierGuarantee" sheetId="11" r:id="rId8"/>
+    <sheet name="Store" sheetId="2" r:id="rId9"/>
+    <sheet name="StoreAction" sheetId="13" r:id="rId10"/>
+    <sheet name="StoreActiveOnHand" sheetId="14" r:id="rId11"/>
+    <sheet name="StoreActivePriceList" sheetId="15" r:id="rId12"/>
+    <sheet name="StoreCalendar" sheetId="16" r:id="rId13"/>
+    <sheet name="StoreCalendarHistory" sheetId="17" r:id="rId14"/>
+    <sheet name="StoreDeliveryPerson" sheetId="18" r:id="rId15"/>
+    <sheet name="StoreValidRegionInfo" sheetId="19" r:id="rId16"/>
+    <sheet name="Supplier" sheetId="3" r:id="rId17"/>
+    <sheet name="Customer" sheetId="4" r:id="rId18"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="168">
   <si>
     <t>MainAppProductId</t>
   </si>
@@ -284,13 +297,244 @@
     <t>PictureTypeValueId</t>
   </si>
   <si>
-    <t xml:space="preserve">Guid ProductPictureId </t>
-  </si>
-  <si>
     <t>ProductId</t>
   </si>
   <si>
     <t>Product</t>
+  </si>
+  <si>
+    <t>ProductPictureId</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>NLeft</t>
+  </si>
+  <si>
+    <t>NRight</t>
+  </si>
+  <si>
+    <t>NLevel</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>CharGroupId</t>
+  </si>
+  <si>
+    <t>ParentId</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>ProductGroup1</t>
+  </si>
+  <si>
+    <t>ProductGroup2</t>
+  </si>
+  <si>
+    <t>Icollection-Product</t>
+  </si>
+  <si>
+    <t>Icollection-ProductGroup</t>
+  </si>
+  <si>
+    <t>CommentDate</t>
+  </si>
+  <si>
+    <t>CommentTime</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>CommentBy</t>
+  </si>
+  <si>
+    <t>CommentByName</t>
+  </si>
+  <si>
+    <t>CommentByEmailAddress</t>
+  </si>
+  <si>
+    <t>IsApproved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductCommentId </t>
+  </si>
+  <si>
+    <t>TimeSpan</t>
+  </si>
+  <si>
+    <t>ProductBaseUniqueId</t>
+  </si>
+  <si>
+    <t>ProductBaseCode</t>
+  </si>
+  <si>
+    <t>ProductBaseName</t>
+  </si>
+  <si>
+    <t>StoreProductBaseName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductTypeValueId </t>
+  </si>
+  <si>
+    <t>CharCategoryId</t>
+  </si>
+  <si>
+    <t>ProductBaseProductMapId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductId </t>
+  </si>
+  <si>
+    <t>ProductBaseId_InValid_</t>
+  </si>
+  <si>
+    <t>CharValueId</t>
+  </si>
+  <si>
+    <t>CharValue</t>
+  </si>
+  <si>
+    <t>ProductRateId</t>
+  </si>
+  <si>
+    <t>RateDate</t>
+  </si>
+  <si>
+    <t>RateTime</t>
+  </si>
+  <si>
+    <t>RateBy</t>
+  </si>
+  <si>
+    <t>RateByName</t>
+  </si>
+  <si>
+    <t>SupplierProductGuaranteeId</t>
+  </si>
+  <si>
+    <t>GuaranteeTypeValueId</t>
+  </si>
+  <si>
+    <t>GuaranteeDuration</t>
+  </si>
+  <si>
+    <t>GuaranteeDesc</t>
+  </si>
+  <si>
+    <t>StoreActionValueId</t>
+  </si>
+  <si>
+    <t>ActionDate</t>
+  </si>
+  <si>
+    <t>ActionPDate</t>
+  </si>
+  <si>
+    <t>ActionTime</t>
+  </si>
+  <si>
+    <t>ActionDesc</t>
+  </si>
+  <si>
+    <t>ActionDataId</t>
+  </si>
+  <si>
+    <t>StoreActionId</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>StoreActiveOnHandId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty </t>
+  </si>
+  <si>
+    <t>StoreActivePriceListId</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>PDate</t>
+  </si>
+  <si>
+    <t>FromTime</t>
+  </si>
+  <si>
+    <t>ToTime</t>
+  </si>
+  <si>
+    <t>CalendarTypeValueId</t>
+  </si>
+  <si>
+    <t>StoreCalendarId</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StoreId </t>
+  </si>
+  <si>
+    <t>StoreCalendarHistories</t>
+  </si>
+  <si>
+    <t>Icollection-StoreCalendarHistory</t>
+  </si>
+  <si>
+    <t>StoreCalendarHistoryId</t>
+  </si>
+  <si>
+    <t>CanledarTemplateId</t>
+  </si>
+  <si>
+    <t>ApplyBy</t>
+  </si>
+  <si>
+    <t>ApplyDate</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CalendarTemplate</t>
+  </si>
+  <si>
+    <t>StoreCalendar</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>StoreDeliveryPersonId</t>
+  </si>
+  <si>
+    <t>DeliveryPersionId</t>
+  </si>
+  <si>
+    <t>DeliveryPerson</t>
+  </si>
+  <si>
+    <t>StoreValidRegionInfoId</t>
+  </si>
+  <si>
+    <t>CityRegion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store </t>
   </si>
 </sst>
 </file>
@@ -389,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,6 +667,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1067,12 +1314,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1110,15 +1357,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="E2" s="13"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15">
@@ -1126,10 +1371,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
@@ -1140,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -1154,10 +1399,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>29</v>
@@ -1170,14 +1415,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="11"/>
       <c r="F6" s="4"/>
     </row>
@@ -1186,10 +1429,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>29</v>
@@ -1202,15 +1445,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -1218,15 +1463,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="15">
@@ -1234,172 +1479,889 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>29</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="11"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1505,7 +2467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -1834,12 +2796,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1902,12 +2864,135 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11"/>
       <c r="F4" s="4"/>
@@ -1917,9 +3002,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="11"/>
       <c r="F5" s="4"/>
@@ -1929,14 +3016,1289 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
       <c r="F6" s="4"/>
     </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/DPV.ATL/Attribute List.xlsx
+++ b/Document/DPV.ATL/Attribute List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,15 @@
     <sheet name="StoreDeliveryPerson" sheetId="18" r:id="rId15"/>
     <sheet name="StoreValidRegionInfo" sheetId="19" r:id="rId16"/>
     <sheet name="Supplier" sheetId="3" r:id="rId17"/>
-    <sheet name="Customer" sheetId="4" r:id="rId18"/>
+    <sheet name="PurchaseOrder" sheetId="20" r:id="rId18"/>
+    <sheet name="Customer" sheetId="4" r:id="rId19"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="186">
   <si>
     <t>MainAppProductId</t>
   </si>
@@ -535,6 +536,60 @@
   </si>
   <si>
     <t xml:space="preserve">Store </t>
+  </si>
+  <si>
+    <t>PurchaseOrderId</t>
+  </si>
+  <si>
+    <t>OrderUniqueId</t>
+  </si>
+  <si>
+    <t>ActionSourceValueId</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>OrderPDate</t>
+  </si>
+  <si>
+    <t>OrderTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomeId </t>
+  </si>
+  <si>
+    <t>ShipAddressId</t>
+  </si>
+  <si>
+    <t>PaymentTypeValueId</t>
+  </si>
+  <si>
+    <t>DiscountCodeId</t>
+  </si>
+  <si>
+    <t>AppOrderNo</t>
+  </si>
+  <si>
+    <t>DiscountAmount</t>
+  </si>
+  <si>
+    <t>Add1Amount</t>
+  </si>
+  <si>
+    <t>Add2Amount</t>
+  </si>
+  <si>
+    <t>ShippingCost</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>OtherAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OtherSub </t>
   </si>
 </sst>
 </file>
@@ -1951,7 +2006,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2262,7 +2317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2366,7 +2421,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2468,6 +2523,435 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>

--- a/Document/DPV.ATL/Attribute List.xlsx
+++ b/Document/DPV.ATL/Attribute List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,19 @@
     <sheet name="StoreValidRegionInfo" sheetId="19" r:id="rId16"/>
     <sheet name="Supplier" sheetId="3" r:id="rId17"/>
     <sheet name="PurchaseOrder" sheetId="20" r:id="rId18"/>
-    <sheet name="Customer" sheetId="4" r:id="rId19"/>
+    <sheet name="PurchaseOrderClearance" sheetId="21" r:id="rId19"/>
+    <sheet name="PurchaseOrderHistory" sheetId="22" r:id="rId20"/>
+    <sheet name="PurchaseOrderLineItem" sheetId="23" r:id="rId21"/>
+    <sheet name="PurchaseOrderPayment" sheetId="24" r:id="rId22"/>
+    <sheet name="Customer" sheetId="4" r:id="rId23"/>
+    <sheet name="CustomerShipAddress" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="251">
   <si>
     <t>MainAppProductId</t>
   </si>
@@ -590,6 +595,201 @@
   </si>
   <si>
     <t xml:space="preserve">OtherSub </t>
+  </si>
+  <si>
+    <t>DeliveryTypeValueId</t>
+  </si>
+  <si>
+    <t>DeliveryDate</t>
+  </si>
+  <si>
+    <t>DeliveryPDate</t>
+  </si>
+  <si>
+    <t>DeliveryFromTime</t>
+  </si>
+  <si>
+    <t>DeliveryToTime</t>
+  </si>
+  <si>
+    <t>PurchaseOrderStatusValueId</t>
+  </si>
+  <si>
+    <t>DiscountFinalAmount</t>
+  </si>
+  <si>
+    <t>Add1FinalAmount</t>
+  </si>
+  <si>
+    <t>Add2FinalAmount</t>
+  </si>
+  <si>
+    <t>ShippingFinalCost</t>
+  </si>
+  <si>
+    <t>TotalFinalAmount</t>
+  </si>
+  <si>
+    <t>OtherFinalAdd</t>
+  </si>
+  <si>
+    <t>OtherFinalSub</t>
+  </si>
+  <si>
+    <t>IsCancelled</t>
+  </si>
+  <si>
+    <t>CancelReasonValueId</t>
+  </si>
+  <si>
+    <t>CancelDesc</t>
+  </si>
+  <si>
+    <t>BackOfficeId</t>
+  </si>
+  <si>
+    <t>BasketId</t>
+  </si>
+  <si>
+    <t>Basket</t>
+  </si>
+  <si>
+    <t>PurchaseOrderClearances</t>
+  </si>
+  <si>
+    <t>Icollection-PurchaseOrderClearance</t>
+  </si>
+  <si>
+    <t>PurchaseOrderHistories</t>
+  </si>
+  <si>
+    <t>Icollection-PurchaseOrderHistory</t>
+  </si>
+  <si>
+    <t>PurchaseOrderLineItems</t>
+  </si>
+  <si>
+    <t>PurchaseOrderPayments</t>
+  </si>
+  <si>
+    <t>Icollection-PurchaseOrderLineItem</t>
+  </si>
+  <si>
+    <t>Icollection-PurchaseOrderPayment</t>
+  </si>
+  <si>
+    <t>PurchaseOrderClearanceId</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>DeliveryPersonId</t>
+  </si>
+  <si>
+    <t>ClearanceStatusTypeId</t>
+  </si>
+  <si>
+    <t>PurchaseOrder</t>
+  </si>
+  <si>
+    <t>PurchaseOrderHistoryId</t>
+  </si>
+  <si>
+    <t>StatusDate</t>
+  </si>
+  <si>
+    <t>StatusPDate</t>
+  </si>
+  <si>
+    <t>StatusTime</t>
+  </si>
+  <si>
+    <t>PurchaseOrderStatusDataId</t>
+  </si>
+  <si>
+    <t>CreateBy</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>PurchaseOrderLineItemId</t>
+  </si>
+  <si>
+    <t>FinalProductId</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Add1</t>
+  </si>
+  <si>
+    <t>Add2</t>
+  </si>
+  <si>
+    <t>IsPrize</t>
+  </si>
+  <si>
+    <t>AllowReplace</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>FinalUnitPrice</t>
+  </si>
+  <si>
+    <t>FinalQty</t>
+  </si>
+  <si>
+    <t>FinalDiscount</t>
+  </si>
+  <si>
+    <t>FinalAdd1</t>
+  </si>
+  <si>
+    <t>FinalAdd2</t>
+  </si>
+  <si>
+    <t>FinalAmount</t>
+  </si>
+  <si>
+    <t>PurchaseOrderGiftCardId</t>
+  </si>
+  <si>
+    <t>GiftCardId</t>
+  </si>
+  <si>
+    <t>BankAccountId</t>
+  </si>
+  <si>
+    <t>PaymentTrackingNo</t>
+  </si>
+  <si>
+    <t>PayTypeValueId</t>
+  </si>
+  <si>
+    <t>InAppPayment</t>
+  </si>
+  <si>
+    <t>PayDate</t>
+  </si>
+  <si>
+    <t>PayPDate</t>
+  </si>
+  <si>
+    <t>PayTime</t>
+  </si>
+  <si>
+    <t>CustomerShipAddressId</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2621,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2524,17 +2724,17 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
@@ -2860,8 +3060,12 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D22" s="15"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2870,19 +3074,29 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D23" s="15"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
@@ -2890,29 +3104,45 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D25" s="15"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
@@ -2920,8 +3150,12 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2930,8 +3164,12 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D29" s="15"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2940,11 +3178,233 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="15">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="15">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="15">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2953,17 +3413,17 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
@@ -2994,15 +3454,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15">
@@ -3010,10 +3470,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
@@ -3026,10 +3486,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11"/>
@@ -3040,14 +3500,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="11"/>
       <c r="F5" s="4"/>
     </row>
@@ -3055,225 +3513,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>59</v>
+      <c r="B6" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>60</v>
+      <c r="B7" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>217</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3399,6 +3661,1363 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>

--- a/Document/DPV.ATL/Attribute List.xlsx
+++ b/Document/DPV.ATL/Attribute List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="BankAccount" sheetId="27" r:id="rId1"/>
@@ -28,36 +28,37 @@
     <sheet name="CustomerShipAddress" sheetId="26" r:id="rId19"/>
     <sheet name="DeliveryPerson" sheetId="44" r:id="rId20"/>
     <sheet name="DiscountCode" sheetId="45" r:id="rId21"/>
-    <sheet name="Manufacture" sheetId="46" r:id="rId22"/>
-    <sheet name="Product" sheetId="1" r:id="rId23"/>
-    <sheet name="ProductBase" sheetId="8" r:id="rId24"/>
-    <sheet name="ProductBaseProductMap" sheetId="9" r:id="rId25"/>
-    <sheet name="ProductComment" sheetId="7" r:id="rId26"/>
-    <sheet name="ProductGroup" sheetId="6" r:id="rId27"/>
-    <sheet name="ProductPicture" sheetId="5" r:id="rId28"/>
-    <sheet name="ProductRate" sheetId="10" r:id="rId29"/>
-    <sheet name="ProductSupplierGuarantee" sheetId="11" r:id="rId30"/>
-    <sheet name="PurchaseOrder" sheetId="20" r:id="rId31"/>
-    <sheet name="PurchaseOrderClearance" sheetId="21" r:id="rId32"/>
-    <sheet name="PurchaseOrderHistory" sheetId="22" r:id="rId33"/>
-    <sheet name="PurchaseOrderLineItem" sheetId="23" r:id="rId34"/>
-    <sheet name="PurchaseOrderPayment" sheetId="24" r:id="rId35"/>
-    <sheet name="Store" sheetId="2" r:id="rId36"/>
-    <sheet name="StoreAction" sheetId="13" r:id="rId37"/>
-    <sheet name="StoreActiveOnHand" sheetId="14" r:id="rId38"/>
-    <sheet name="StoreActivePriceList" sheetId="15" r:id="rId39"/>
-    <sheet name="StoreCalendar" sheetId="16" r:id="rId40"/>
-    <sheet name="StoreCalendarHistory" sheetId="17" r:id="rId41"/>
-    <sheet name="StoreDeliveryPerson" sheetId="18" r:id="rId42"/>
-    <sheet name="StoreValidRegionInfo" sheetId="19" r:id="rId43"/>
-    <sheet name="Supplier" sheetId="3" r:id="rId44"/>
+    <sheet name="ItemImage" sheetId="47" r:id="rId22"/>
+    <sheet name="Manufacture" sheetId="46" r:id="rId23"/>
+    <sheet name="Product" sheetId="1" r:id="rId24"/>
+    <sheet name="ProductBase" sheetId="8" r:id="rId25"/>
+    <sheet name="ProductBaseProductMap" sheetId="9" r:id="rId26"/>
+    <sheet name="ProductComment" sheetId="7" r:id="rId27"/>
+    <sheet name="ProductGroup" sheetId="6" r:id="rId28"/>
+    <sheet name="ProductPicture" sheetId="5" r:id="rId29"/>
+    <sheet name="ProductRate" sheetId="10" r:id="rId30"/>
+    <sheet name="ProductSupplierGuarantee" sheetId="11" r:id="rId31"/>
+    <sheet name="PurchaseOrder" sheetId="20" r:id="rId32"/>
+    <sheet name="PurchaseOrderClearance" sheetId="21" r:id="rId33"/>
+    <sheet name="PurchaseOrderHistory" sheetId="22" r:id="rId34"/>
+    <sheet name="PurchaseOrderLineItem" sheetId="23" r:id="rId35"/>
+    <sheet name="PurchaseOrderPayment" sheetId="24" r:id="rId36"/>
+    <sheet name="Store" sheetId="2" r:id="rId37"/>
+    <sheet name="StoreAction" sheetId="13" r:id="rId38"/>
+    <sheet name="StoreActiveOnHand" sheetId="14" r:id="rId39"/>
+    <sheet name="StoreActivePriceList" sheetId="15" r:id="rId40"/>
+    <sheet name="StoreCalendar" sheetId="16" r:id="rId41"/>
+    <sheet name="StoreCalendarHistory" sheetId="17" r:id="rId42"/>
+    <sheet name="StoreDeliveryPerson" sheetId="18" r:id="rId43"/>
+    <sheet name="StoreValidRegionInfo" sheetId="19" r:id="rId44"/>
+    <sheet name="Supplier" sheetId="3" r:id="rId45"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="380">
   <si>
     <t>MainAppProductId</t>
   </si>
@@ -884,9 +885,6 @@
     <t>BaseValueName</t>
   </si>
   <si>
-    <t>BasketTypeValueId</t>
-  </si>
-  <si>
     <t>BasketName</t>
   </si>
   <si>
@@ -983,9 +981,6 @@
     <t>CharTypeDesc</t>
   </si>
   <si>
-    <t>DefaultCharValueID</t>
-  </si>
-  <si>
     <t>CharGroupTypeInfoes</t>
   </si>
   <si>
@@ -1007,9 +1002,6 @@
     <t>CharValueID</t>
   </si>
   <si>
-    <t>CityRegionId</t>
-  </si>
-  <si>
     <t>ClearanceId</t>
   </si>
   <si>
@@ -1059,13 +1051,160 @@
   </si>
   <si>
     <t>FinalIsPrize</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>BasketTypeValueGuid</t>
+  </si>
+  <si>
+    <t>ForeignKey("Customer")</t>
+  </si>
+  <si>
+    <t>ForignKey("Product")</t>
+  </si>
+  <si>
+    <t>ForignKey("Basket")</t>
+  </si>
+  <si>
+    <t>CharTypes</t>
+  </si>
+  <si>
+    <t>Icollection-CharType</t>
+  </si>
+  <si>
+    <t>DefaultCharValueGuid</t>
+  </si>
+  <si>
+    <t>CharGroups</t>
+  </si>
+  <si>
+    <t>Icollection-CharGroup</t>
+  </si>
+  <si>
+    <t>ForeignKey("CharType")</t>
+  </si>
+  <si>
+    <t>CityRegion2Id</t>
+  </si>
+  <si>
+    <t>Guid?</t>
+  </si>
+  <si>
+    <t>Icollection-Store</t>
+  </si>
+  <si>
+    <t>CustomerInfoes</t>
+  </si>
+  <si>
+    <t>Icollection-Customer</t>
+  </si>
+  <si>
+    <t>CityRegion1</t>
+  </si>
+  <si>
+    <t>Icollection-CityRegion</t>
+  </si>
+  <si>
+    <t>ForeignKey("Cityregion2Id")</t>
+  </si>
+  <si>
+    <t>CityRegion2</t>
+  </si>
+  <si>
+    <t>NationalCode</t>
+  </si>
+  <si>
+    <t>ForeignKey("RegionInfo")</t>
+  </si>
+  <si>
+    <t>Column(order=0)</t>
+  </si>
+  <si>
+    <t>RegionInfoId</t>
+  </si>
+  <si>
+    <t>ForeignKey("RegionLevel1")</t>
+  </si>
+  <si>
+    <t>Column(order=1)</t>
+  </si>
+  <si>
+    <t>RegionLevel1Id</t>
+  </si>
+  <si>
+    <t>Column(order=2)</t>
+  </si>
+  <si>
+    <t>ForeignKey("RegionLevel2")</t>
+  </si>
+  <si>
+    <t>RegionLevel2Id</t>
+  </si>
+  <si>
+    <t>Column(order=3)</t>
+  </si>
+  <si>
+    <t>ForeignKey("RegionLevel3")</t>
+  </si>
+  <si>
+    <t>RegionLevel3Id</t>
+  </si>
+  <si>
+    <t>ForeignKey("RegionLevel4")</t>
+  </si>
+  <si>
+    <t>Column(order=4)</t>
+  </si>
+  <si>
+    <t>RegionLevel4Id</t>
+  </si>
+  <si>
+    <t>CustomerBaskets</t>
+  </si>
+  <si>
+    <t>Icollection-Basket</t>
+  </si>
+  <si>
+    <t>RegionInfo</t>
+  </si>
+  <si>
+    <t>RegionLevel1</t>
+  </si>
+  <si>
+    <t>RegionLevel2</t>
+  </si>
+  <si>
+    <t>RegionLevel3</t>
+  </si>
+  <si>
+    <t>RegionLevel4</t>
+  </si>
+  <si>
+    <t>TokenId</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+  </si>
+  <si>
+    <t>ImageType</t>
+  </si>
+  <si>
+    <t>ManufactureName</t>
+  </si>
+  <si>
+    <t>ProductManufactures</t>
+  </si>
+  <si>
+    <t>ForeignKey("ProductGroup")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,13 +1246,45 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibiri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibiri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1156,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1192,7 +1363,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1501,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1536,20 +1775,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1">
@@ -1590,7 +1829,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1657,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
@@ -1689,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>28</v>
@@ -1707,7 +1946,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>28</v>
@@ -1743,7 +1982,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1778,106 +2017,106 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
+      <c r="A4" s="34">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="1">
+      <c r="A5" s="34">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="1">
+      <c r="A6" s="34">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="1">
+      <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="1">
+      <c r="A8" s="34">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1887,17 +2126,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -1929,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -1943,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -1953,20 +2192,34 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
+      <c r="A4" s="34">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1979,7 +2232,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2014,68 +2267,68 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2085,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2127,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
@@ -2137,64 +2390,78 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,7 +2471,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -2246,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
@@ -2260,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>23</v>
@@ -2276,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
@@ -2288,66 +2555,78 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="1">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="B5" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2357,16 +2636,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
@@ -2467,36 +2746,36 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="1">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
@@ -2505,12 +2784,66 @@
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>80</v>
+      <c r="C9" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2562,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -2578,7 +2911,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>73</v>
@@ -2594,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -2608,7 +2941,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>111</v>
@@ -2624,7 +2957,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>21</v>
@@ -2640,7 +2973,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>21</v>
@@ -2659,16 +2992,16 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
@@ -2699,17 +3032,17 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1">
@@ -2781,7 +3114,7 @@
       <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="11"/>
@@ -2805,49 +3138,49 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1">
@@ -2878,108 +3211,356 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="1">
+      <c r="A14" s="28">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="28">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="28">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6" ht="15">
+      <c r="A24" s="28">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6" ht="15">
+      <c r="A25" s="34">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="D25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" s="34">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="34">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="15">
+      <c r="A28" s="34">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="D28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29" s="34">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="15">
+      <c r="A30" s="34">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" ht="15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="15">
+      <c r="A32" s="28">
+        <v>31</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="28">
+        <v>32</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="28">
+        <v>33</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="28">
+        <v>34</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="28">
+        <v>35</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="28">
+        <v>36</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3079,7 +3660,7 @@
       <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="42" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="11"/>
@@ -3293,10 +3874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3330,95 +3911,91 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="11"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="11"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D6" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="11"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>265</v>
+      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>267</v>
@@ -3429,10 +4006,10 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>267</v>
@@ -3440,6 +4017,20 @@
       <c r="D9" s="9"/>
       <c r="E9" s="11"/>
       <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3507,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -3521,7 +4112,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -3555,7 +4146,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3610,7 +4201,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>28</v>
@@ -3624,7 +4215,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -3638,7 +4229,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>27</v>
@@ -3657,17 +4248,17 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -3695,18 +4286,132 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3714,18 +4419,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
@@ -3753,18 +4458,18 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1">
@@ -3885,27 +4590,27 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="1">
+      <c r="A11" s="34">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>22</v>
@@ -3915,34 +4620,28 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="1">
+      <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4"/>
+      <c r="B13" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="13" t="s">
         <v>29</v>
       </c>
@@ -3953,12 +4652,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="13" t="s">
         <v>29</v>
       </c>
@@ -3969,13 +4670,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="15">
@@ -3983,15 +4686,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="E17" s="11"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15">
@@ -3999,13 +4700,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="15">
@@ -4013,10 +4716,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="11"/>
@@ -4027,10 +4730,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="11"/>
@@ -4041,10 +4744,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
@@ -4055,27 +4758,27 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="11"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
@@ -4083,14 +4786,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4098,7 +4815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -4376,7 +5093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -4522,7 +5239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -4716,7 +5433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -4922,7 +5639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -5035,170 +5752,6 @@
       <c r="D6" s="14"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5296,6 +5849,170 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5394,7 +6111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -6084,7 +6801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -6215,7 +6932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -6415,7 +7132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -6762,7 +7479,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>50</v>
@@ -6791,7 +7508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -7021,7 +7738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -7353,7 +8070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -7533,7 +8250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -7653,7 +8370,95 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -7791,95 +8596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -8077,7 +8794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -8251,7 +8968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -8391,7 +9108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -8495,7 +9212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -8619,16 +9336,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
@@ -8656,25 +9373,25 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -8684,62 +9401,88 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="1">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8749,10 +9492,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8786,116 +9529,168 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="35">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="35">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8946,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -8992,7 +9787,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
@@ -9006,7 +9801,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
@@ -9022,7 +9817,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>22</v>
@@ -9036,7 +9831,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>111</v>
@@ -9052,7 +9847,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>50</v>
@@ -9126,7 +9921,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
@@ -9140,7 +9935,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>28</v>
@@ -9156,10 +9951,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="11"/>
@@ -9170,10 +9965,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -9204,7 +9999,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9267,7 +10062,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
@@ -9307,7 +10102,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>28</v>
@@ -9323,7 +10118,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>28</v>

--- a/Document/DPV.ATL/Attribute List.xlsx
+++ b/Document/DPV.ATL/Attribute List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="38" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="BankAccount" sheetId="27" r:id="rId1"/>
@@ -53,12 +53,12 @@
     <sheet name="StoreValidRegionInfo" sheetId="19" r:id="rId44"/>
     <sheet name="Supplier" sheetId="3" r:id="rId45"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="394">
   <si>
     <t>MainAppProductId</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Icollection-StoreDeliveryPerson</t>
   </si>
   <si>
-    <t>Icollection-StoreValidRegionInfo</t>
-  </si>
-  <si>
     <t>Icollection-CharValue</t>
   </si>
   <si>
@@ -1198,13 +1195,58 @@
   </si>
   <si>
     <t>ForeignKey("ProductGroup")</t>
+  </si>
+  <si>
+    <t>ForeignKey("Manufacture")</t>
+  </si>
+  <si>
+    <t>ManufactureId</t>
+  </si>
+  <si>
+    <t>ForeignKey("MainSupplier")</t>
+  </si>
+  <si>
+    <t>MainSupplier</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>ProductGroup2Id</t>
+  </si>
+  <si>
+    <t>ForeignKey("ProductGroup2Id")</t>
+  </si>
+  <si>
+    <t>ProductPictureName</t>
+  </si>
+  <si>
+    <t>ForeignKey("ProductId")</t>
+  </si>
+  <si>
+    <t>CustomerShipAdress</t>
+  </si>
+  <si>
+    <t>FinalProduct</t>
+  </si>
+  <si>
+    <t>StoreCode</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>ForeignKey("Store")</t>
+  </si>
+  <si>
+    <t>ForeignKey("Product")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,6 +1294,10 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibiri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibiri"/>
     </font>
   </fonts>
@@ -1327,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1434,6 +1480,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1779,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>21</v>
@@ -1795,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -1809,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -1868,10 +1937,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
@@ -1882,10 +1951,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1896,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
@@ -1912,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>28</v>
@@ -1928,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>28</v>
@@ -1946,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>28</v>
@@ -1962,10 +2031,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="4"/>
@@ -2021,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>21</v>
@@ -2037,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>22</v>
@@ -2051,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>21</v>
@@ -2065,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>21</v>
@@ -2079,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>21</v>
@@ -2093,7 +2162,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>21</v>
@@ -2107,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>21</v>
@@ -2168,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -2182,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -2196,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>28</v>
@@ -2212,10 +2281,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="4"/>
@@ -2271,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>21</v>
@@ -2287,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>28</v>
@@ -2305,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>28</v>
@@ -2321,10 +2390,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="18"/>
@@ -2380,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
@@ -2394,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>28</v>
@@ -2410,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>28</v>
@@ -2426,10 +2495,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="18"/>
@@ -2440,10 +2509,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>339</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>340</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="27"/>
@@ -2454,10 +2523,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="4"/>
@@ -2513,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
@@ -2527,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>23</v>
@@ -2543,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
@@ -2559,7 +2628,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
@@ -2571,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>28</v>
@@ -2589,7 +2658,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>28</v>
@@ -2605,10 +2674,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="4"/>
@@ -2619,10 +2688,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="4"/>
@@ -2678,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
@@ -2692,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>21</v>
@@ -2706,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
@@ -2720,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>21</v>
@@ -2734,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>21</v>
@@ -2750,10 +2819,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>342</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>343</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="17" t="s">
@@ -2766,7 +2835,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>28</v>
@@ -2785,7 +2854,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="4"/>
@@ -2796,10 +2865,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>345</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>346</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="27"/>
@@ -2810,10 +2879,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>347</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>348</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="27"/>
@@ -2824,7 +2893,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="33"/>
@@ -2836,10 +2905,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="27"/>
@@ -2895,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -2911,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>73</v>
@@ -2927,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -2941,10 +3010,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>29</v>
@@ -2957,7 +3026,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>21</v>
@@ -2973,7 +3042,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>21</v>
@@ -3215,7 +3284,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>22</v>
@@ -3229,10 +3298,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>352</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>353</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
@@ -3243,7 +3312,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>28</v>
@@ -3259,10 +3328,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>355</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>356</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -3273,7 +3342,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>28</v>
@@ -3289,10 +3358,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
@@ -3303,7 +3372,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>28</v>
@@ -3319,10 +3388,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
@@ -3333,7 +3402,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>28</v>
@@ -3349,10 +3418,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>364</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>365</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -3363,7 +3432,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>28</v>
@@ -3483,10 +3552,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>367</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>368</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="27"/>
@@ -3497,10 +3566,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="27"/>
@@ -3511,10 +3580,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="27"/>
@@ -3525,10 +3594,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="27"/>
@@ -3539,10 +3608,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="27"/>
@@ -3553,10 +3622,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="27"/>
@@ -3611,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
@@ -3627,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -3701,7 +3770,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>27</v>
@@ -3733,7 +3802,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>22</v>
@@ -3747,7 +3816,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>22</v>
@@ -3775,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>50</v>
@@ -3791,7 +3860,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>21</v>
@@ -3857,10 +3926,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="11"/>
@@ -3913,7 +3982,7 @@
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3925,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>28</v>
@@ -3939,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
@@ -3953,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>73</v>
@@ -3967,7 +4036,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
@@ -3981,10 +4050,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="11"/>
@@ -3995,10 +4064,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="11"/>
@@ -4009,10 +4078,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="11"/>
@@ -4023,10 +4092,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="11"/>
@@ -4082,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
@@ -4098,7 +4167,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -4112,7 +4181,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -4185,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
@@ -4201,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>28</v>
@@ -4215,7 +4284,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -4229,7 +4298,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>27</v>
@@ -4290,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>22</v>
@@ -4304,7 +4373,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>22</v>
@@ -4318,7 +4387,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>22</v>
@@ -4376,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>22</v>
@@ -4390,7 +4459,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -4404,10 +4473,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="4"/>
@@ -4421,10 +4490,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4590,27 +4659,27 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="34">
+      <c r="A11" s="35">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>22</v>
@@ -4624,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
@@ -4632,20 +4701,20 @@
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="1">
+      <c r="A14" s="34">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="1">
@@ -4660,154 +4729,236 @@
       <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="37" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="1">
+      <c r="A16" s="28">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="1">
+      <c r="A20" s="28">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" ht="15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="1">
+      <c r="A22" s="34">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" ht="15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="11"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="15">
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" s="28">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4820,7 +4971,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4854,238 +5005,238 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="1">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="34">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="34">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="34">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="34">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="1">
+      <c r="A15" s="34">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="B15" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5098,7 +5249,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5132,106 +5283,106 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="C6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="1">
+      <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="B7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5244,7 +5395,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5282,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>73</v>
@@ -5296,10 +5447,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="11"/>
@@ -5310,7 +5461,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
@@ -5324,7 +5475,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>28</v>
@@ -5340,7 +5491,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
@@ -5354,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>22</v>
@@ -5368,7 +5519,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>50</v>
@@ -5384,7 +5535,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>28</v>
@@ -5402,7 +5553,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>28</v>
@@ -5418,10 +5569,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="12"/>
@@ -5435,16 +5586,16 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
@@ -5472,27 +5623,27 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -5506,7 +5657,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
@@ -5520,7 +5671,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>21</v>
@@ -5534,7 +5685,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>21</v>
@@ -5548,7 +5699,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>21</v>
@@ -5560,63 +5711,63 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="1">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="15">
@@ -5624,14 +5775,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="4"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5641,10 +5818,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5678,80 +5855,108 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>86</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="11"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5802,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -5818,7 +6023,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -5832,7 +6037,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -5849,16 +6054,16 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
@@ -5886,45 +6091,45 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="D3" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>73</v>
@@ -5938,10 +6143,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5952,7 +6157,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>21</v>
@@ -5966,7 +6171,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>28</v>
@@ -5982,7 +6187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
@@ -5992,18 +6197,30 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6054,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -6068,7 +6285,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>27</v>
@@ -6082,7 +6299,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
@@ -6096,7 +6313,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
@@ -6113,10 +6330,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6150,41 +6367,41 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>27</v>
@@ -6212,7 +6429,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
@@ -6228,7 +6445,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>22</v>
@@ -6242,10 +6459,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
@@ -6257,56 +6474,56 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>27</v>
@@ -6320,7 +6537,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -6334,7 +6551,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>27</v>
@@ -6348,7 +6565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>23</v>
@@ -6362,7 +6579,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -6376,7 +6593,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>23</v>
@@ -6390,7 +6607,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>23</v>
@@ -6404,7 +6621,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -6418,7 +6635,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -6432,7 +6649,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>23</v>
@@ -6462,7 +6679,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
@@ -6476,7 +6693,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>73</v>
@@ -6492,7 +6709,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
@@ -6506,10 +6723,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>29</v>
@@ -6522,10 +6739,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>29</v>
@@ -6538,7 +6755,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -6552,7 +6769,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>23</v>
@@ -6566,7 +6783,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>23</v>
@@ -6580,7 +6797,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>23</v>
@@ -6594,7 +6811,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>23</v>
@@ -6608,7 +6825,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>23</v>
@@ -6622,7 +6839,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>23</v>
@@ -6636,7 +6853,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>23</v>
@@ -6650,7 +6867,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>50</v>
@@ -6666,7 +6883,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>27</v>
@@ -6682,7 +6899,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>22</v>
@@ -6696,7 +6913,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>21</v>
@@ -6708,74 +6925,74 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="15">
-      <c r="A40" s="1">
+      <c r="A40" s="28">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="1:6" ht="15">
+      <c r="A41" s="28">
+        <v>40</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+    </row>
+    <row r="42" spans="1:6" ht="15">
+      <c r="A42" s="28">
+        <v>41</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="1:6" ht="15">
+      <c r="A43" s="34">
+        <v>39</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="D43" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="4"/>
@@ -6783,17 +7000,59 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6844,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -6860,7 +7119,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>21</v>
@@ -6875,7 +7134,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
@@ -6889,7 +7148,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>21</v>
@@ -6903,7 +7162,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>21</v>
@@ -6917,10 +7176,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="4"/>
@@ -6937,7 +7196,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6975,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -6991,7 +7250,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>27</v>
@@ -7007,7 +7266,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
@@ -7023,7 +7282,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>73</v>
@@ -7039,7 +7298,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
@@ -7053,10 +7312,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>29</v>
@@ -7069,7 +7328,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>21</v>
@@ -7085,7 +7344,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
@@ -7101,7 +7360,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>73</v>
@@ -7117,10 +7376,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="4"/>
@@ -7134,10 +7393,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7174,114 +7433,114 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="1">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="1">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
@@ -7295,7 +7554,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>23</v>
@@ -7309,12 +7568,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
@@ -7323,56 +7582,54 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>230</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>213</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
@@ -7381,26 +7638,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
@@ -7409,7 +7668,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>23</v>
@@ -7423,7 +7682,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -7437,7 +7696,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -7451,7 +7710,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>23</v>
@@ -7465,7 +7724,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -7479,10 +7738,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="4"/>
@@ -7493,14 +7752,42 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7512,7 +7799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -7551,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -7565,7 +7852,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>21</v>
@@ -7581,7 +7868,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
@@ -7595,7 +7882,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>27</v>
@@ -7609,7 +7896,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>21</v>
@@ -7625,7 +7912,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>22</v>
@@ -7639,7 +7926,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>22</v>
@@ -7653,7 +7940,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
@@ -7667,7 +7954,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>50</v>
@@ -7681,7 +7968,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>73</v>
@@ -7695,7 +7982,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -7709,10 +7996,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="4"/>
@@ -7723,10 +8010,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="4"/>
@@ -7740,10 +8027,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7793,46 +8080,44 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
+      <c r="A3" s="51">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="11"/>
       <c r="F5" s="4"/>
     </row>
@@ -7841,12 +8126,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="11"/>
@@ -7857,12 +8142,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="11"/>
@@ -7873,10 +8158,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>29</v>
@@ -7889,7 +8174,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>21</v>
@@ -7905,10 +8190,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>29</v>
@@ -7921,15 +8206,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="D11" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="15">
@@ -7937,15 +8222,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="13"/>
+      <c r="D12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="15">
@@ -7953,12 +8238,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="13"/>
@@ -7969,15 +8254,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="11"/>
+      <c r="D14" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="13"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -7985,12 +8270,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="4"/>
     </row>
@@ -7999,13 +8286,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="15">
@@ -8013,13 +8300,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15">
@@ -8027,10 +8314,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="11"/>
@@ -8041,10 +8328,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="11"/>
@@ -8055,14 +8342,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="11"/>
       <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8075,7 +8376,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8113,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>27</v>
@@ -8127,7 +8428,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>73</v>
@@ -8141,7 +8442,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -8155,10 +8456,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>29</v>
@@ -8171,7 +8472,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
@@ -8185,7 +8486,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>21</v>
@@ -8219,7 +8520,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>28</v>
@@ -8235,10 +8536,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="11"/>
@@ -8252,10 +8553,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8289,44 +8590,42 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11"/>
@@ -8337,32 +8636,72 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="4"/>
+      <c r="D7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8413,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>27</v>
@@ -8429,7 +8768,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>27</v>
@@ -8443,7 +8782,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -8460,10 +8799,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8497,98 +8836,122 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="13"/>
+      <c r="D5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="1">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8598,10 +8961,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8639,12 +9002,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="13"/>
@@ -8655,7 +9018,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -8669,12 +9032,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="13"/>
@@ -8685,12 +9048,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="13"/>
@@ -8701,7 +9064,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>28</v>
@@ -8713,27 +9076,27 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="1">
+      <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
@@ -8742,36 +9105,34 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
@@ -8779,14 +9140,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8837,7 +9212,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
@@ -8853,7 +9228,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>28</v>
@@ -8871,7 +9246,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>28</v>
@@ -8889,7 +9264,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>28</v>
@@ -8905,7 +9280,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
@@ -8921,7 +9296,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
@@ -8939,10 +9314,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="4"/>
@@ -8953,10 +9328,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -9011,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>50</v>
@@ -9045,7 +9420,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>28</v>
@@ -9061,7 +9436,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>28</v>
@@ -9079,10 +9454,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
@@ -9093,10 +9468,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -9113,7 +9488,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9147,64 +9522,64 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9217,7 +9592,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9251,38 +9626,38 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="1">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="D3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1">
@@ -9299,30 +9674,30 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="1">
+      <c r="A5" s="34">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="4"/>
@@ -9377,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>28</v>
@@ -9391,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -9405,7 +9780,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
@@ -9433,10 +9808,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="26"/>
@@ -9447,10 +9822,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="11"/>
@@ -9461,10 +9836,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
@@ -9475,10 +9850,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="11"/>
@@ -9533,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -9545,7 +9920,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>28</v>
@@ -9559,7 +9934,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>21</v>
@@ -9575,7 +9950,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>28</v>
@@ -9591,7 +9966,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>21</v>
@@ -9625,10 +10000,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="38"/>
@@ -9639,7 +10014,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>21</v>
@@ -9649,7 +10024,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
@@ -9671,7 +10046,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
@@ -9683,10 +10058,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="4"/>
@@ -9741,7 +10116,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -9757,7 +10132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>21</v>
@@ -9787,7 +10162,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
@@ -9801,7 +10176,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
@@ -9817,7 +10192,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>22</v>
@@ -9831,10 +10206,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
@@ -9847,7 +10222,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>50</v>
@@ -9863,10 +10238,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="4"/>
@@ -9921,7 +10296,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
@@ -9935,7 +10310,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>28</v>
@@ -9951,10 +10326,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="11"/>
@@ -9965,10 +10340,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -9979,10 +10354,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="11"/>
@@ -10038,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>73</v>
@@ -10054,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -10062,7 +10437,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
@@ -10070,10 +10445,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
@@ -10086,10 +10461,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>29</v>
@@ -10102,7 +10477,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>28</v>
@@ -10118,7 +10493,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>28</v>
@@ -10136,10 +10511,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="4"/>
